--- a/com.Equarz.Ecommerce/src/main/java/com/testdata/Registration data.xlsx
+++ b/com.Equarz.Ecommerce/src/main/java/com/testdata/Registration data.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Address" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -97,6 +98,27 @@
   </si>
   <si>
     <t>Niha@123</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>vinukonda</t>
+  </si>
+  <si>
+    <t>main bazar,vinukonda</t>
   </si>
 </sst>
 </file>
@@ -430,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -492,4 +514,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>6300313272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>522647</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>